--- a/Code/Results/Cases/Case_2_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_99/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.619240741379656</v>
+        <v>1.936384891369244</v>
       </c>
       <c r="C2">
-        <v>0.8864628912104422</v>
+        <v>0.3063928068183088</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04309980549647818</v>
+        <v>0.06041624720933214</v>
       </c>
       <c r="F2">
-        <v>2.738014814465743</v>
+        <v>3.503324868206647</v>
       </c>
       <c r="G2">
-        <v>0.0008274127135838533</v>
+        <v>0.002588067574074</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.921408561050853</v>
+        <v>2.314698982480635</v>
       </c>
       <c r="J2">
-        <v>0.1225817466368184</v>
+        <v>0.1778744747948195</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1128377819874515</v>
+        <v>0.298820149118491</v>
       </c>
       <c r="M2">
-        <v>0.4022697964852213</v>
+        <v>0.4143508551076067</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.277377475467745</v>
+        <v>1.863314276690176</v>
       </c>
       <c r="C3">
-        <v>0.761815073570375</v>
+        <v>0.2735367505877662</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03841455921764059</v>
+        <v>0.05892210267657561</v>
       </c>
       <c r="F3">
-        <v>2.540926746866063</v>
+        <v>3.468298162815032</v>
       </c>
       <c r="G3">
-        <v>0.0008370632350983802</v>
+        <v>0.002593931998298218</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.800065476627182</v>
+        <v>2.291330996386179</v>
       </c>
       <c r="J3">
-        <v>0.1229891392561626</v>
+        <v>0.1779329282893585</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1049133314034094</v>
+        <v>0.2989477356285306</v>
       </c>
       <c r="M3">
-        <v>0.3531884119493967</v>
+        <v>0.4052213421678204</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.071456592042864</v>
+        <v>1.819783652279853</v>
       </c>
       <c r="C4">
-        <v>0.6867910024467676</v>
+        <v>0.253504437051447</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03560496764822041</v>
+        <v>0.05799221195438342</v>
       </c>
       <c r="F4">
-        <v>2.424509369826993</v>
+        <v>3.44829744513612</v>
       </c>
       <c r="G4">
-        <v>0.0008431396847859208</v>
+        <v>0.002597720999803761</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.728861594668444</v>
+        <v>2.27790491901068</v>
       </c>
       <c r="J4">
-        <v>0.1233664754531745</v>
+        <v>0.1779988299064499</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1001836580730213</v>
+        <v>0.2991545467433809</v>
       </c>
       <c r="M4">
-        <v>0.3236475319688665</v>
+        <v>0.3998826666199449</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.988419184516204</v>
+        <v>1.802379702974804</v>
       </c>
       <c r="C5">
-        <v>0.6565417471549608</v>
+        <v>0.2453757656786877</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03447376391934931</v>
+        <v>0.0576100608997816</v>
       </c>
       <c r="F5">
-        <v>2.378120567913655</v>
+        <v>3.440524291685222</v>
       </c>
       <c r="G5">
-        <v>0.000845655881752336</v>
+        <v>0.002599312544576344</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.70059969601526</v>
+        <v>2.272664185406967</v>
       </c>
       <c r="J5">
-        <v>0.1235497294890422</v>
+        <v>0.1780331580372625</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.09828868287231529</v>
+        <v>0.299271248514529</v>
       </c>
       <c r="M5">
-        <v>0.3117424704094276</v>
+        <v>0.3977742518243872</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.97468041536905</v>
+        <v>1.799510015891599</v>
       </c>
       <c r="C6">
-        <v>0.6515368866386666</v>
+        <v>0.2440280730220081</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03428667110948425</v>
+        <v>0.05754640876958916</v>
       </c>
       <c r="F6">
-        <v>2.370478433618459</v>
+        <v>3.439256314338536</v>
       </c>
       <c r="G6">
-        <v>0.0008460761659765409</v>
+        <v>0.002599579692815529</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.695950286534469</v>
+        <v>2.271807848472406</v>
       </c>
       <c r="J6">
-        <v>0.1235818710776577</v>
+        <v>0.1780393073716944</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0979759316263582</v>
+        <v>0.2992925886475462</v>
       </c>
       <c r="M6">
-        <v>0.3097732243757321</v>
+        <v>0.3974282071665201</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.070333326481716</v>
+        <v>1.819547580331914</v>
       </c>
       <c r="C7">
-        <v>0.6863818103297206</v>
+        <v>0.2533946717975368</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03558966020357524</v>
+        <v>0.05798707123815561</v>
       </c>
       <c r="F7">
-        <v>2.423879624211679</v>
+        <v>3.44819108780213</v>
       </c>
       <c r="G7">
-        <v>0.0008431734546145574</v>
+        <v>0.002597742271359734</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.728477486501291</v>
+        <v>2.277833309136398</v>
       </c>
       <c r="J7">
-        <v>0.1233688306185208</v>
+        <v>0.1779992627102409</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1001579728139959</v>
+        <v>0.2991559891784163</v>
       </c>
       <c r="M7">
-        <v>0.3234864581634653</v>
+        <v>0.3998539599175146</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.500460395767902</v>
+        <v>1.910912674900828</v>
       </c>
       <c r="C8">
-        <v>0.84313543172442</v>
+        <v>0.295034124947648</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04146838250716911</v>
+        <v>0.05990361089645369</v>
       </c>
       <c r="F8">
-        <v>2.66904004100455</v>
+        <v>3.490934294755789</v>
       </c>
       <c r="G8">
-        <v>0.0008307101501902024</v>
+        <v>0.002590050662542154</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.878836534457974</v>
+        <v>2.30644953425805</v>
       </c>
       <c r="J8">
-        <v>0.1226942345983346</v>
+        <v>0.1778883562670153</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1100760827982441</v>
+        <v>0.2988375467958662</v>
       </c>
       <c r="M8">
-        <v>0.3852125031329834</v>
+        <v>0.4111476190532244</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.381876254370638</v>
+        <v>2.100712076733259</v>
       </c>
       <c r="C9">
-        <v>1.165354472059221</v>
+        <v>0.3778564932026711</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05369176842885537</v>
+        <v>0.06356642392202438</v>
       </c>
       <c r="F9">
-        <v>3.191438554399156</v>
+        <v>3.586770262124418</v>
       </c>
       <c r="G9">
-        <v>0.0008073661167838796</v>
+        <v>0.002576453299105498</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.203688973640624</v>
+        <v>2.369945884706397</v>
       </c>
       <c r="J9">
-        <v>0.1225075563842744</v>
+        <v>0.1779123483081086</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1306948279776563</v>
+        <v>0.2992275693183473</v>
       </c>
       <c r="M9">
-        <v>0.511819571527532</v>
+        <v>0.4354128874429364</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.062599453006328</v>
+        <v>2.246715398947856</v>
       </c>
       <c r="C10">
-        <v>1.415646787837886</v>
+        <v>0.4394868741865139</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06335820292218486</v>
+        <v>0.06620430902303198</v>
       </c>
       <c r="F10">
-        <v>3.608746714154506</v>
+        <v>3.664612951956002</v>
       </c>
       <c r="G10">
-        <v>0.0007907242125875086</v>
+        <v>0.002567358482274465</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.466625230130745</v>
+        <v>2.421191874673198</v>
       </c>
       <c r="J10">
-        <v>0.1232662674499494</v>
+        <v>0.1780818734196359</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1466989322986194</v>
+        <v>0.3001265250826819</v>
       </c>
       <c r="M10">
-        <v>0.6095554460816359</v>
+        <v>0.4545363341630306</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.382102881002197</v>
+        <v>2.314578300121752</v>
       </c>
       <c r="C11">
-        <v>1.533648842040236</v>
+        <v>0.4677091088549901</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06797552343725499</v>
+        <v>0.06739391004777673</v>
       </c>
       <c r="F11">
-        <v>3.807970387768052</v>
+        <v>3.701663233406066</v>
       </c>
       <c r="G11">
-        <v>0.0007832224917242256</v>
+        <v>0.002563413114322244</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.593068055636422</v>
+        <v>2.445524058359425</v>
       </c>
       <c r="J11">
-        <v>0.1238604714908647</v>
+        <v>0.1781929955734469</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1542020831866608</v>
+        <v>0.3006672385520801</v>
       </c>
       <c r="M11">
-        <v>0.6553887440181541</v>
+        <v>0.4635186771627389</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.504761838254808</v>
+        <v>2.340485208165944</v>
       </c>
       <c r="C12">
-        <v>1.579046373188817</v>
+        <v>0.4784240624601921</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06976275324625547</v>
+        <v>0.06784297435595832</v>
       </c>
       <c r="F12">
-        <v>3.884965194784087</v>
+        <v>3.715930672638081</v>
       </c>
       <c r="G12">
-        <v>0.0007803876605249405</v>
+        <v>0.002561946528245836</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.642082692013545</v>
+        <v>2.454886321507246</v>
       </c>
       <c r="J12">
-        <v>0.1241267661711873</v>
+        <v>0.1782400472831966</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1570788594643346</v>
+        <v>0.3008908351543482</v>
       </c>
       <c r="M12">
-        <v>0.6729756629451131</v>
+        <v>0.4669608045582549</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.478266298510675</v>
+        <v>2.334896395559042</v>
       </c>
       <c r="C13">
-        <v>1.569235448162999</v>
+        <v>0.4761151523899798</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06937599151593332</v>
+        <v>0.06774632180116313</v>
       </c>
       <c r="F13">
-        <v>3.868310368158745</v>
+        <v>3.71284734489663</v>
       </c>
       <c r="G13">
-        <v>0.0007809979989617427</v>
+        <v>0.002562261165812101</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.63147346134248</v>
+        <v>2.452863375659447</v>
       </c>
       <c r="J13">
-        <v>0.1240674819730643</v>
+        <v>0.1782296913989896</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1564576556995121</v>
+        <v>0.3008418434185742</v>
       </c>
       <c r="M13">
-        <v>0.669177154154049</v>
+        <v>0.4662176699710088</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.3921590436928</v>
+        <v>2.316705489200729</v>
       </c>
       <c r="C14">
-        <v>1.53736870629524</v>
+        <v>0.4685900713606657</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06812173821132106</v>
+        <v>0.06743088266146913</v>
       </c>
       <c r="F14">
-        <v>3.814272404734766</v>
+        <v>3.702832259223641</v>
       </c>
       <c r="G14">
-        <v>0.000782989174889386</v>
+        <v>0.00256329190841926</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.597076859725973</v>
+        <v>2.446291318732335</v>
       </c>
       <c r="J14">
-        <v>0.123881517804783</v>
+        <v>0.1781967664224382</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1544380245246799</v>
+        <v>0.3006852570114091</v>
       </c>
       <c r="M14">
-        <v>0.6568307952729455</v>
+        <v>0.4638010470727423</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.339641549003716</v>
+        <v>2.30559023947967</v>
       </c>
       <c r="C15">
-        <v>1.517945999516712</v>
+        <v>0.4639843936666352</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06735875002786784</v>
+        <v>0.06723748566596655</v>
       </c>
       <c r="F15">
-        <v>3.781381366901627</v>
+        <v>3.696728680964043</v>
       </c>
       <c r="G15">
-        <v>0.0007842094692403822</v>
+        <v>0.002563926836469474</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.576160413316543</v>
+        <v>2.442285087976089</v>
       </c>
       <c r="J15">
-        <v>0.1237731631967947</v>
+        <v>0.1781772489002975</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1532056748772348</v>
+        <v>0.300591793660189</v>
       </c>
       <c r="M15">
-        <v>0.6492994307008502</v>
+        <v>0.4623260978623875</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.041938116393908</v>
+        <v>2.242309554653104</v>
       </c>
       <c r="C16">
-        <v>1.408028044771413</v>
+        <v>0.4376463198436227</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06306145875822722</v>
+        <v>0.06612636376896397</v>
       </c>
       <c r="F16">
-        <v>3.595932626110681</v>
+        <v>3.662224749425917</v>
       </c>
       <c r="G16">
-        <v>0.000791215523830663</v>
+        <v>0.002567620169584825</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.458511802948379</v>
+        <v>2.419622364763626</v>
       </c>
       <c r="J16">
-        <v>0.1232328940888223</v>
+        <v>0.1780753026082635</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1462133527776714</v>
+        <v>0.3000938304750136</v>
       </c>
       <c r="M16">
-        <v>0.6065905084135323</v>
+        <v>0.4539550125714982</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.861996967611958</v>
+        <v>2.203859676072909</v>
       </c>
       <c r="C17">
-        <v>1.341735888947653</v>
+        <v>0.4215371932747303</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06048626010692182</v>
+        <v>0.06544212420838669</v>
       </c>
       <c r="F17">
-        <v>3.484706338741034</v>
+        <v>3.641478674262714</v>
       </c>
       <c r="G17">
-        <v>0.0007955284625590511</v>
+        <v>0.002569934950461477</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.388188973933396</v>
+        <v>2.40598186051389</v>
       </c>
       <c r="J17">
-        <v>0.1229688683284422</v>
+        <v>0.1780215296199366</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1419831805073244</v>
+        <v>0.2998220186967728</v>
       </c>
       <c r="M17">
-        <v>0.5807639195667988</v>
+        <v>0.4488921123198679</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.759408404640396</v>
+        <v>2.181880302188006</v>
       </c>
       <c r="C18">
-        <v>1.303988385141622</v>
+        <v>0.4122891199007768</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05902529313875782</v>
+        <v>0.06504758517637832</v>
       </c>
       <c r="F18">
-        <v>3.421601895315376</v>
+        <v>3.629700279093441</v>
       </c>
       <c r="G18">
-        <v>0.0007980158919986511</v>
+        <v>0.002571284423762977</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.348373987472669</v>
+        <v>2.398232131911982</v>
       </c>
       <c r="J18">
-        <v>0.122840075961566</v>
+        <v>0.1779937965088791</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1395708375158193</v>
+        <v>0.2996780893364388</v>
       </c>
       <c r="M18">
-        <v>0.5660361011504804</v>
+        <v>0.4460067011231317</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.724822584163348</v>
+        <v>2.174461792563136</v>
       </c>
       <c r="C19">
-        <v>1.291270050676701</v>
+        <v>0.4091608508239233</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0585339095299755</v>
+        <v>0.0649138298131362</v>
       </c>
       <c r="F19">
-        <v>3.400379488806237</v>
+        <v>3.62573875278818</v>
       </c>
       <c r="G19">
-        <v>0.0007988593630031252</v>
+        <v>0.00257174444107132</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.334997743605243</v>
+        <v>2.395624637272704</v>
       </c>
       <c r="J19">
-        <v>0.1228002784954363</v>
+        <v>0.1779849529156365</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1387575234158689</v>
+        <v>0.2996314920296399</v>
       </c>
       <c r="M19">
-        <v>0.5610703749498072</v>
+        <v>0.4450343247261017</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.881056218213359</v>
+        <v>2.207938651767904</v>
       </c>
       <c r="C20">
-        <v>1.348752475475635</v>
+        <v>0.4232502218553691</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06075825399707568</v>
+        <v>0.06551506377695659</v>
       </c>
       <c r="F20">
-        <v>3.496455144418064</v>
+        <v>3.643671159041219</v>
       </c>
       <c r="G20">
-        <v>0.0007950686723069888</v>
+        <v>0.002569686668615245</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.395608434797708</v>
+        <v>2.40742397639842</v>
       </c>
       <c r="J20">
-        <v>0.1229945500227316</v>
+        <v>0.178026922509094</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1424313193712763</v>
+        <v>0.2998496699737032</v>
       </c>
       <c r="M20">
-        <v>0.5834998375412681</v>
+        <v>0.4494283099736833</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.417403289744414</v>
+        <v>2.322042928087058</v>
       </c>
       <c r="C21">
-        <v>1.546708376389802</v>
+        <v>0.4707996072121432</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06848902839728055</v>
+        <v>0.0675235724427381</v>
       </c>
       <c r="F21">
-        <v>3.830100752455792</v>
+        <v>3.705767479668054</v>
       </c>
       <c r="G21">
-        <v>0.0007824041925255223</v>
+        <v>0.002562988410794276</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.607147900912096</v>
+        <v>2.44821765721754</v>
       </c>
       <c r="J21">
-        <v>0.1239349715167251</v>
+        <v>0.178206301683197</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1550302460469908</v>
+        <v>0.3007307397768244</v>
       </c>
       <c r="M21">
-        <v>0.6604506646978052</v>
+        <v>0.4645097628089516</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.777817694328576</v>
+        <v>2.397833572877516</v>
       </c>
       <c r="C22">
-        <v>1.680306162259001</v>
+        <v>0.5020384381834333</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07377163207306126</v>
+        <v>0.0688280585989105</v>
       </c>
       <c r="F22">
-        <v>4.057326089028578</v>
+        <v>3.747734938054009</v>
       </c>
       <c r="G22">
-        <v>0.0007741593759788336</v>
+        <v>0.002558770575425991</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.752094547839775</v>
+        <v>2.475743174860384</v>
       </c>
       <c r="J22">
-        <v>0.1247934444174987</v>
+        <v>0.1783525565595099</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1634732081001857</v>
+        <v>0.301416335390023</v>
       </c>
       <c r="M22">
-        <v>0.712107167138214</v>
+        <v>0.4746036596884409</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.584459204200186</v>
+        <v>2.357271031364462</v>
       </c>
       <c r="C23">
-        <v>1.608572666006864</v>
+        <v>0.4853504705288287</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07092847313802508</v>
+        <v>0.06813255196493984</v>
       </c>
       <c r="F23">
-        <v>3.935137896136467</v>
+        <v>3.725208959621853</v>
       </c>
       <c r="G23">
-        <v>0.0007785583179461949</v>
+        <v>0.002561007137661295</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.67406555374798</v>
+        <v>2.460972688225269</v>
       </c>
       <c r="J23">
-        <v>0.1243108963400914</v>
+        <v>0.1782718148547744</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1589466701341706</v>
+        <v>0.3010404120363219</v>
       </c>
       <c r="M23">
-        <v>0.6843999019685825</v>
+        <v>0.4691946374922793</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.872436864858344</v>
+        <v>2.206094154541745</v>
       </c>
       <c r="C24">
-        <v>1.34557914922118</v>
+        <v>0.4224757203529066</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06063522518904207</v>
+        <v>0.06548209141905481</v>
       </c>
       <c r="F24">
-        <v>3.491140904732703</v>
+        <v>3.642679473313649</v>
       </c>
       <c r="G24">
-        <v>0.0007952765187201881</v>
+        <v>0.002569798858569258</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.392252193509762</v>
+        <v>2.406771708180329</v>
       </c>
       <c r="J24">
-        <v>0.1229828680922083</v>
+        <v>0.1780244744798871</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1422286548737404</v>
+        <v>0.2998371303902729</v>
       </c>
       <c r="M24">
-        <v>0.5822625569946496</v>
+        <v>0.4491858161566853</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.138408890535743</v>
+        <v>2.048220344868128</v>
       </c>
       <c r="C25">
-        <v>1.076166828954058</v>
+        <v>0.3553187732978245</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05028580121889448</v>
+        <v>0.06258524294747048</v>
       </c>
       <c r="F25">
-        <v>3.044877125969492</v>
+        <v>3.559546699393536</v>
       </c>
       <c r="G25">
-        <v>0.0008135792530031503</v>
+        <v>0.002579973778448587</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.112021911912493</v>
+        <v>2.351968455578728</v>
       </c>
       <c r="J25">
-        <v>0.1224171385494017</v>
+        <v>0.1778795231868671</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1249779643483038</v>
+        <v>0.2990140823312046</v>
       </c>
       <c r="M25">
-        <v>0.4768462308346315</v>
+        <v>0.4286212772320681</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_99/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_99/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.936384891369244</v>
+        <v>2.619240741379713</v>
       </c>
       <c r="C2">
-        <v>0.3063928068183088</v>
+        <v>0.8864628912103569</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06041624720933214</v>
+        <v>0.04309980549641068</v>
       </c>
       <c r="F2">
-        <v>3.503324868206647</v>
+        <v>2.738014814465743</v>
       </c>
       <c r="G2">
-        <v>0.002588067574074</v>
+        <v>0.0008274127136382006</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.314698982480635</v>
+        <v>1.921408561050839</v>
       </c>
       <c r="J2">
-        <v>0.1778744747948195</v>
+        <v>0.1225817466368788</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.298820149118491</v>
+        <v>0.1128377819874089</v>
       </c>
       <c r="M2">
-        <v>0.4143508551076067</v>
+        <v>0.4022697964852</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.863314276690176</v>
+        <v>2.277377475467745</v>
       </c>
       <c r="C3">
-        <v>0.2735367505877662</v>
+        <v>0.7618150735706308</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05892210267657561</v>
+        <v>0.03841455921763703</v>
       </c>
       <c r="F3">
-        <v>3.468298162815032</v>
+        <v>2.540926746866063</v>
       </c>
       <c r="G3">
-        <v>0.002593931998298218</v>
+        <v>0.0008370632351576424</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.291330996386179</v>
+        <v>1.800065476627182</v>
       </c>
       <c r="J3">
-        <v>0.1779329282893585</v>
+        <v>0.1229891392560454</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2989477356285306</v>
+        <v>0.1049133314034592</v>
       </c>
       <c r="M3">
-        <v>0.4052213421678204</v>
+        <v>0.3531884119494038</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.819783652279853</v>
+        <v>2.071456592042637</v>
       </c>
       <c r="C4">
-        <v>0.253504437051447</v>
+        <v>0.6867910024467392</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05799221195438342</v>
+        <v>0.03560496764819909</v>
       </c>
       <c r="F4">
-        <v>3.44829744513612</v>
+        <v>2.42450936982695</v>
       </c>
       <c r="G4">
-        <v>0.002597720999803761</v>
+        <v>0.000843139684790745</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.27790491901068</v>
+        <v>1.728861594668416</v>
       </c>
       <c r="J4">
-        <v>0.1779988299064499</v>
+        <v>0.1233664754530395</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2991545467433809</v>
+        <v>0.1001836580730142</v>
       </c>
       <c r="M4">
-        <v>0.3998826666199449</v>
+        <v>0.3236475319688523</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.802379702974804</v>
+        <v>1.988419184516431</v>
       </c>
       <c r="C5">
-        <v>0.2453757656786877</v>
+        <v>0.6565417471547335</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0576100608997816</v>
+        <v>0.0344737639193653</v>
       </c>
       <c r="F5">
-        <v>3.440524291685222</v>
+        <v>2.378120567913669</v>
       </c>
       <c r="G5">
-        <v>0.002599312544576344</v>
+        <v>0.0008456558817534131</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.272664185406967</v>
+        <v>1.700599696015274</v>
       </c>
       <c r="J5">
-        <v>0.1780331580372625</v>
+        <v>0.123549729488996</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.299271248514529</v>
+        <v>0.09828868287237214</v>
       </c>
       <c r="M5">
-        <v>0.3977742518243872</v>
+        <v>0.3117424704094347</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.799510015891599</v>
+        <v>1.974680415369164</v>
       </c>
       <c r="C6">
-        <v>0.2440280730220081</v>
+        <v>0.6515368866389224</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05754640876958916</v>
+        <v>0.03428667110951267</v>
       </c>
       <c r="F6">
-        <v>3.439256314338536</v>
+        <v>2.370478433618473</v>
       </c>
       <c r="G6">
-        <v>0.002599579692815529</v>
+        <v>0.0008460761659202493</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.271807848472406</v>
+        <v>1.695950286534497</v>
       </c>
       <c r="J6">
-        <v>0.1780393073716944</v>
+        <v>0.1235818710776613</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2992925886475462</v>
+        <v>0.09797593162640794</v>
       </c>
       <c r="M6">
-        <v>0.3974282071665201</v>
+        <v>0.3097732243757392</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.819547580331914</v>
+        <v>2.070333326481887</v>
       </c>
       <c r="C7">
-        <v>0.2533946717975368</v>
+        <v>0.6863818103299195</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05798707123815561</v>
+        <v>0.03558966020351484</v>
       </c>
       <c r="F7">
-        <v>3.44819108780213</v>
+        <v>2.423879624211665</v>
       </c>
       <c r="G7">
-        <v>0.002597742271359734</v>
+        <v>0.0008431734545553081</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.277833309136398</v>
+        <v>1.728477486501276</v>
       </c>
       <c r="J7">
-        <v>0.1779992627102409</v>
+        <v>0.1233688306184568</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2991559891784163</v>
+        <v>0.1001579728141522</v>
       </c>
       <c r="M7">
-        <v>0.3998539599175146</v>
+        <v>0.323486458163444</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.910912674900828</v>
+        <v>2.500460395768073</v>
       </c>
       <c r="C8">
-        <v>0.295034124947648</v>
+        <v>0.8431354317246189</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05990361089645369</v>
+        <v>0.0414683825072224</v>
       </c>
       <c r="F8">
-        <v>3.490934294755789</v>
+        <v>2.66904004100455</v>
       </c>
       <c r="G8">
-        <v>0.002590050662542154</v>
+        <v>0.0008307101503084322</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.30644953425805</v>
+        <v>1.87883653445796</v>
       </c>
       <c r="J8">
-        <v>0.1778883562670153</v>
+        <v>0.1226942345983026</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2988375467958662</v>
+        <v>0.1100760827983009</v>
       </c>
       <c r="M8">
-        <v>0.4111476190532244</v>
+        <v>0.3852125031329905</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.100712076733259</v>
+        <v>3.381876254370582</v>
       </c>
       <c r="C9">
-        <v>0.3778564932026711</v>
+        <v>1.165354472058937</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06356642392202438</v>
+        <v>0.05369176842886247</v>
       </c>
       <c r="F9">
-        <v>3.586770262124418</v>
+        <v>3.191438554399127</v>
       </c>
       <c r="G9">
-        <v>0.002576453299105498</v>
+        <v>0.0008073661169176862</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.369945884706397</v>
+        <v>2.20368897364061</v>
       </c>
       <c r="J9">
-        <v>0.1779123483081086</v>
+        <v>0.1225075563843241</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2992275693183473</v>
+        <v>0.1306948279775639</v>
       </c>
       <c r="M9">
-        <v>0.4354128874429364</v>
+        <v>0.5118195715275249</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.246715398947856</v>
+        <v>4.062599453006499</v>
       </c>
       <c r="C10">
-        <v>0.4394868741865139</v>
+        <v>1.415646787838455</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06620430902303198</v>
+        <v>0.06335820292222749</v>
       </c>
       <c r="F10">
-        <v>3.664612951956002</v>
+        <v>3.608746714154506</v>
       </c>
       <c r="G10">
-        <v>0.002567358482274465</v>
+        <v>0.000790724212669458</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.421191874673198</v>
+        <v>2.466625230130759</v>
       </c>
       <c r="J10">
-        <v>0.1780818734196359</v>
+        <v>0.1232662674499991</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3001265250826819</v>
+        <v>0.1466989322985484</v>
       </c>
       <c r="M10">
-        <v>0.4545363341630306</v>
+        <v>0.6095554460816359</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.314578300121752</v>
+        <v>4.382102881002311</v>
       </c>
       <c r="C11">
-        <v>0.4677091088549901</v>
+        <v>1.533648842039952</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06739391004777673</v>
+        <v>0.06797552343725144</v>
       </c>
       <c r="F11">
-        <v>3.701663233406066</v>
+        <v>3.807970387768108</v>
       </c>
       <c r="G11">
-        <v>0.002563413114322244</v>
+        <v>0.000783222491701355</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.445524058359425</v>
+        <v>2.593068055636422</v>
       </c>
       <c r="J11">
-        <v>0.1781929955734469</v>
+        <v>0.1238604714908575</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3006672385520801</v>
+        <v>0.1542020831866466</v>
       </c>
       <c r="M11">
-        <v>0.4635186771627389</v>
+        <v>0.6553887440181612</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.340485208165944</v>
+        <v>4.504761838254694</v>
       </c>
       <c r="C12">
-        <v>0.4784240624601921</v>
+        <v>1.579046373188703</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06784297435595832</v>
+        <v>0.06976275324615955</v>
       </c>
       <c r="F12">
-        <v>3.715930672638081</v>
+        <v>3.884965194784115</v>
       </c>
       <c r="G12">
-        <v>0.002561946528245836</v>
+        <v>0.0007803876605467501</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.454886321507246</v>
+        <v>2.64208269201356</v>
       </c>
       <c r="J12">
-        <v>0.1782400472831966</v>
+        <v>0.1241267661712229</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3008908351543482</v>
+        <v>0.1570788594643631</v>
       </c>
       <c r="M12">
-        <v>0.4669608045582549</v>
+        <v>0.6729756629450989</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.334896395559042</v>
+        <v>4.478266298510619</v>
       </c>
       <c r="C13">
-        <v>0.4761151523899798</v>
+        <v>1.569235448162942</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06774632180116313</v>
+        <v>0.06937599151592266</v>
       </c>
       <c r="F13">
-        <v>3.71284734489663</v>
+        <v>3.868310368158802</v>
       </c>
       <c r="G13">
-        <v>0.002562261165812101</v>
+        <v>0.0007809979991466633</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.452863375659447</v>
+        <v>2.631473461342523</v>
       </c>
       <c r="J13">
-        <v>0.1782296913989896</v>
+        <v>0.1240674819731709</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3008418434185742</v>
+        <v>0.1564576556996329</v>
       </c>
       <c r="M13">
-        <v>0.4662176699710088</v>
+        <v>0.6691771541540348</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.316705489200729</v>
+        <v>4.3921590436928</v>
       </c>
       <c r="C14">
-        <v>0.4685900713606657</v>
+        <v>1.537368706294728</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06743088266146913</v>
+        <v>0.06812173821132106</v>
       </c>
       <c r="F14">
-        <v>3.702832259223641</v>
+        <v>3.814272404734766</v>
       </c>
       <c r="G14">
-        <v>0.00256329190841926</v>
+        <v>0.0007829891748663693</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.446291318732335</v>
+        <v>2.597076859725973</v>
       </c>
       <c r="J14">
-        <v>0.1781967664224382</v>
+        <v>0.1238815178049748</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3006852570114091</v>
+        <v>0.1544380245246657</v>
       </c>
       <c r="M14">
-        <v>0.4638010470727423</v>
+        <v>0.6568307952729455</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.30559023947967</v>
+        <v>4.339641549003659</v>
       </c>
       <c r="C15">
-        <v>0.4639843936666352</v>
+        <v>1.51794599951694</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06723748566596655</v>
+        <v>0.06735875002788205</v>
       </c>
       <c r="F15">
-        <v>3.696728680964043</v>
+        <v>3.781381366901599</v>
       </c>
       <c r="G15">
-        <v>0.002563926836469474</v>
+        <v>0.0007842094691596945</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.442285087976089</v>
+        <v>2.576160413316572</v>
       </c>
       <c r="J15">
-        <v>0.1781772489002975</v>
+        <v>0.1237731631967662</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.300591793660189</v>
+        <v>0.1532056748772064</v>
       </c>
       <c r="M15">
-        <v>0.4623260978623875</v>
+        <v>0.6492994307008715</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.242309554653104</v>
+        <v>4.041938116393737</v>
       </c>
       <c r="C16">
-        <v>0.4376463198436227</v>
+        <v>1.408028044771129</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06612636376896397</v>
+        <v>0.06306145875825919</v>
       </c>
       <c r="F16">
-        <v>3.662224749425917</v>
+        <v>3.595932626110653</v>
       </c>
       <c r="G16">
-        <v>0.002567620169584825</v>
+        <v>0.0007912155237878153</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.419622364763626</v>
+        <v>2.458511802948408</v>
       </c>
       <c r="J16">
-        <v>0.1780753026082635</v>
+        <v>0.1232328940888863</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3000938304750136</v>
+        <v>0.1462133527775435</v>
       </c>
       <c r="M16">
-        <v>0.4539550125714982</v>
+        <v>0.6065905084135608</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.203859676072909</v>
+        <v>3.861996967611788</v>
       </c>
       <c r="C17">
-        <v>0.4215371932747303</v>
+        <v>1.341735888947085</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06544212420838669</v>
+        <v>0.06048626010689162</v>
       </c>
       <c r="F17">
-        <v>3.641478674262714</v>
+        <v>3.484706338741091</v>
       </c>
       <c r="G17">
-        <v>0.002569934950461477</v>
+        <v>0.0007955284625588966</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.40598186051389</v>
+        <v>2.388188973933396</v>
       </c>
       <c r="J17">
-        <v>0.1780215296199366</v>
+        <v>0.122968868328357</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2998220186967728</v>
+        <v>0.1419831805073173</v>
       </c>
       <c r="M17">
-        <v>0.4488921123198679</v>
+        <v>0.5807639195667988</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.181880302188006</v>
+        <v>3.759408404640396</v>
       </c>
       <c r="C18">
-        <v>0.4122891199007768</v>
+        <v>1.303988385141849</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06504758517637832</v>
+        <v>0.05902529313878269</v>
       </c>
       <c r="F18">
-        <v>3.629700279093441</v>
+        <v>3.421601895315376</v>
       </c>
       <c r="G18">
-        <v>0.002571284423762977</v>
+        <v>0.0007980158919398092</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.398232131911982</v>
+        <v>2.348373987472698</v>
       </c>
       <c r="J18">
-        <v>0.1779937965088791</v>
+        <v>0.1228400759615553</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2996780893364388</v>
+        <v>0.1395708375158193</v>
       </c>
       <c r="M18">
-        <v>0.4460067011231317</v>
+        <v>0.5660361011504804</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.174461792563136</v>
+        <v>3.724822584163405</v>
       </c>
       <c r="C19">
-        <v>0.4091608508239233</v>
+        <v>1.291270050676644</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0649138298131362</v>
+        <v>0.0585339095299755</v>
       </c>
       <c r="F19">
-        <v>3.62573875278818</v>
+        <v>3.400379488806209</v>
       </c>
       <c r="G19">
-        <v>0.00257174444107132</v>
+        <v>0.0007988593629464838</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.395624637272704</v>
+        <v>2.334997743605257</v>
       </c>
       <c r="J19">
-        <v>0.1779849529156365</v>
+        <v>0.1228002784955677</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2996314920296399</v>
+        <v>0.1387575234158689</v>
       </c>
       <c r="M19">
-        <v>0.4450343247261017</v>
+        <v>0.5610703749498072</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.207938651767904</v>
+        <v>3.881056218213018</v>
       </c>
       <c r="C20">
-        <v>0.4232502218553691</v>
+        <v>1.348752475476147</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06551506377695659</v>
+        <v>0.06075825399708634</v>
       </c>
       <c r="F20">
-        <v>3.643671159041219</v>
+        <v>3.496455144418093</v>
       </c>
       <c r="G20">
-        <v>0.002569686668615245</v>
+        <v>0.0007950686723093381</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.40742397639842</v>
+        <v>2.395608434797708</v>
       </c>
       <c r="J20">
-        <v>0.178026922509094</v>
+        <v>0.1229945500226037</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2998496699737032</v>
+        <v>0.1424313193712123</v>
       </c>
       <c r="M20">
-        <v>0.4494283099736833</v>
+        <v>0.5834998375412823</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.322042928087058</v>
+        <v>4.417403289744243</v>
       </c>
       <c r="C21">
-        <v>0.4707996072121432</v>
+        <v>1.546708376389574</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0675235724427381</v>
+        <v>0.06848902839724147</v>
       </c>
       <c r="F21">
-        <v>3.705767479668054</v>
+        <v>3.830100752455792</v>
       </c>
       <c r="G21">
-        <v>0.002562988410794276</v>
+        <v>0.0007824041925248372</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.44821765721754</v>
+        <v>2.607147900912096</v>
       </c>
       <c r="J21">
-        <v>0.178206301683197</v>
+        <v>0.1239349715166966</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3007307397768244</v>
+        <v>0.1550302460471684</v>
       </c>
       <c r="M21">
-        <v>0.4645097628089516</v>
+        <v>0.6604506646978123</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.397833572877516</v>
+        <v>4.777817694328689</v>
       </c>
       <c r="C22">
-        <v>0.5020384381834333</v>
+        <v>1.680306162259001</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0688280585989105</v>
+        <v>0.07377163207308612</v>
       </c>
       <c r="F22">
-        <v>3.747734938054009</v>
+        <v>4.05732608902855</v>
       </c>
       <c r="G22">
-        <v>0.002558770575425991</v>
+        <v>0.0007741593758950844</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.475743174860384</v>
+        <v>2.752094547839761</v>
       </c>
       <c r="J22">
-        <v>0.1783525565595099</v>
+        <v>0.1247934444174774</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.301416335390023</v>
+        <v>0.1634732081003563</v>
       </c>
       <c r="M22">
-        <v>0.4746036596884409</v>
+        <v>0.7121071671382282</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.357271031364462</v>
+        <v>4.584459204200243</v>
       </c>
       <c r="C23">
-        <v>0.4853504705288287</v>
+        <v>1.608572666006751</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06813255196493984</v>
+        <v>0.07092847313804995</v>
       </c>
       <c r="F23">
-        <v>3.725208959621853</v>
+        <v>3.935137896136467</v>
       </c>
       <c r="G23">
-        <v>0.002561007137661295</v>
+        <v>0.0007785583180268617</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.460972688225269</v>
+        <v>2.674065553747994</v>
       </c>
       <c r="J23">
-        <v>0.1782718148547744</v>
+        <v>0.1243108963401482</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3010404120363219</v>
+        <v>0.1589466701340925</v>
       </c>
       <c r="M23">
-        <v>0.4691946374922793</v>
+        <v>0.684399901968554</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.206094154541745</v>
+        <v>3.872436864858514</v>
       </c>
       <c r="C24">
-        <v>0.4224757203529066</v>
+        <v>1.345579149221123</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06548209141905481</v>
+        <v>0.06063522518908471</v>
       </c>
       <c r="F24">
-        <v>3.642679473313649</v>
+        <v>3.491140904732731</v>
       </c>
       <c r="G24">
-        <v>0.002569798858569258</v>
+        <v>0.0007952765186387475</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.406771708180329</v>
+        <v>2.392252193509805</v>
       </c>
       <c r="J24">
-        <v>0.1780244744798871</v>
+        <v>0.1229828680921869</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2998371303902729</v>
+        <v>0.1422286548736693</v>
       </c>
       <c r="M24">
-        <v>0.4491858161566853</v>
+        <v>0.5822625569946709</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.048220344868128</v>
+        <v>3.138408890535857</v>
       </c>
       <c r="C25">
-        <v>0.3553187732978245</v>
+        <v>1.076166828954058</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06258524294747048</v>
+        <v>0.05028580121886073</v>
       </c>
       <c r="F25">
-        <v>3.559546699393536</v>
+        <v>3.044877125969492</v>
       </c>
       <c r="G25">
-        <v>0.002579973778448587</v>
+        <v>0.0008135792530006721</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.351968455578728</v>
+        <v>2.112021911912493</v>
       </c>
       <c r="J25">
-        <v>0.1778795231868671</v>
+        <v>0.1224171385494905</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2990140823312046</v>
+        <v>0.1249779643482825</v>
       </c>
       <c r="M25">
-        <v>0.4286212772320681</v>
+        <v>0.4768462308346244</v>
       </c>
       <c r="N25">
         <v>0</v>
